--- a/dcd_opamp_stability_feb28_tsmc2p_meas.xlsx
+++ b/dcd_opamp_stability_feb28_tsmc2p_meas.xlsx
@@ -103,7 +103,7 @@
     <t>0.42</t>
   </si>
   <si>
-    <t>0.70</t>
+    <t>0.75</t>
   </si>
   <si>
     <t>8g</t>
@@ -151,7 +151,7 @@
     <t>0.441</t>
   </si>
   <si>
-    <t>0.77</t>
+    <t>0.825</t>
   </si>
   <si>
     <t>rcbest_ccbest_t</t>
@@ -190,7 +190,7 @@
     <t>0.386</t>
   </si>
   <si>
-    <t>0.63</t>
+    <t>0.675</t>
   </si>
   <si>
     <t>rcworst_ccworst_t</t>
@@ -1176,10 +1176,10 @@
         <v>34</v>
       </c>
       <c r="R2">
-        <v>84.8836</v>
+        <v>84.9936</v>
       </c>
       <c r="S2">
-        <v>20.978</v>
+        <v>22.1713</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1235,10 +1235,10 @@
         <v>46</v>
       </c>
       <c r="R3">
-        <v>88.51609999999999</v>
+        <v>88.2706</v>
       </c>
       <c r="S3">
-        <v>27.5221</v>
+        <v>28.2053</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1294,10 +1294,10 @@
         <v>46</v>
       </c>
       <c r="R4">
-        <v>84.4905</v>
+        <v>84.4294</v>
       </c>
       <c r="S4">
-        <v>20.6395</v>
+        <v>21.9504</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1353,10 +1353,10 @@
         <v>59</v>
       </c>
       <c r="R5">
-        <v>85.1397</v>
+        <v>85.3232</v>
       </c>
       <c r="S5">
-        <v>21.3934</v>
+        <v>22.2143</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1412,10 +1412,10 @@
         <v>59</v>
       </c>
       <c r="R6">
-        <v>84.0558</v>
+        <v>84.3767</v>
       </c>
       <c r="S6">
-        <v>20.4199</v>
+        <v>21.7747</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1471,10 +1471,10 @@
         <v>59</v>
       </c>
       <c r="R7">
-        <v>85.8032</v>
+        <v>85.9543</v>
       </c>
       <c r="S7">
-        <v>22.6737</v>
+        <v>23.338</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1530,10 +1530,10 @@
         <v>59</v>
       </c>
       <c r="R8">
-        <v>85.5412</v>
+        <v>85.7205</v>
       </c>
       <c r="S8">
-        <v>22.6189</v>
+        <v>23.7205</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1589,10 +1589,10 @@
         <v>59</v>
       </c>
       <c r="R9">
-        <v>89.2676</v>
+        <v>89.1165</v>
       </c>
       <c r="S9">
-        <v>25.8406</v>
+        <v>26.1748</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1648,10 +1648,10 @@
         <v>59</v>
       </c>
       <c r="R10">
-        <v>84.66330000000001</v>
+        <v>84.8789</v>
       </c>
       <c r="S10">
-        <v>20.7585</v>
+        <v>22.2856</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1707,10 +1707,10 @@
         <v>46</v>
       </c>
       <c r="R11">
-        <v>89.88460000000001</v>
+        <v>89.75360000000001</v>
       </c>
       <c r="S11">
-        <v>28.2359</v>
+        <v>28.8042</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1766,10 +1766,10 @@
         <v>46</v>
       </c>
       <c r="R12">
-        <v>88.8443</v>
+        <v>88.6721</v>
       </c>
       <c r="S12">
-        <v>28.935</v>
+        <v>29.6664</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1825,10 +1825,10 @@
         <v>46</v>
       </c>
       <c r="R13">
-        <v>90.0736</v>
+        <v>89.9966</v>
       </c>
       <c r="S13">
-        <v>29.7363</v>
+        <v>30.329</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1884,10 +1884,10 @@
         <v>46</v>
       </c>
       <c r="R14">
-        <v>86.4773</v>
+        <v>86.5127</v>
       </c>
       <c r="S14">
-        <v>22.9367</v>
+        <v>24.2119</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1943,10 +1943,10 @@
         <v>46</v>
       </c>
       <c r="R15">
-        <v>85.09520000000001</v>
+        <v>85.0241</v>
       </c>
       <c r="S15">
-        <v>22.1829</v>
+        <v>23.1371</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -2002,10 +2002,10 @@
         <v>46</v>
       </c>
       <c r="R16">
-        <v>86.89700000000001</v>
+        <v>86.9067</v>
       </c>
       <c r="S16">
-        <v>24.5712</v>
+        <v>25.4427</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -2061,10 +2061,10 @@
         <v>59</v>
       </c>
       <c r="R17">
-        <v>81.13849999999999</v>
+        <v>81.5341</v>
       </c>
       <c r="S17" s="2">
-        <v>18.4169</v>
+        <v>19.068</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -2120,10 +2120,10 @@
         <v>59</v>
       </c>
       <c r="R18">
-        <v>84.37569999999999</v>
+        <v>84.5956</v>
       </c>
       <c r="S18">
-        <v>20.1067</v>
+        <v>20.8591</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -2179,10 +2179,10 @@
         <v>59</v>
       </c>
       <c r="R19">
-        <v>82.3408</v>
-      </c>
-      <c r="S19" s="2">
-        <v>19.5327</v>
+        <v>82.60420000000001</v>
+      </c>
+      <c r="S19">
+        <v>20.2882</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -2238,10 +2238,10 @@
         <v>59</v>
       </c>
       <c r="R20">
-        <v>79.6953</v>
+        <v>80.2393</v>
       </c>
       <c r="S20" s="2">
-        <v>17.0553</v>
+        <v>18.283</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -2297,10 +2297,10 @@
         <v>59</v>
       </c>
       <c r="R21">
-        <v>83.1113</v>
-      </c>
-      <c r="S21" s="2">
-        <v>19.018</v>
+        <v>83.5247</v>
+      </c>
+      <c r="S21">
+        <v>20.294</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -2356,10 +2356,10 @@
         <v>59</v>
       </c>
       <c r="R22">
-        <v>81.0504</v>
+        <v>81.4526</v>
       </c>
       <c r="S22" s="2">
-        <v>18.3539</v>
+        <v>19.6869</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -2415,10 +2415,10 @@
         <v>46</v>
       </c>
       <c r="R23">
-        <v>81.2415</v>
+        <v>81.6293</v>
       </c>
       <c r="S23" s="2">
-        <v>18.677</v>
+        <v>19.3285</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -2474,10 +2474,10 @@
         <v>46</v>
       </c>
       <c r="R24">
-        <v>84.486</v>
+        <v>84.70910000000001</v>
       </c>
       <c r="S24">
-        <v>20.3935</v>
+        <v>21.1238</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -2533,10 +2533,10 @@
         <v>46</v>
       </c>
       <c r="R25">
-        <v>82.4037</v>
-      </c>
-      <c r="S25" s="2">
-        <v>19.7826</v>
+        <v>82.6973</v>
+      </c>
+      <c r="S25">
+        <v>20.4941</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -2592,10 +2592,10 @@
         <v>46</v>
       </c>
       <c r="R26">
-        <v>80.0184</v>
+        <v>80.5027</v>
       </c>
       <c r="S26" s="2">
-        <v>17.4149</v>
+        <v>18.5258</v>
       </c>
     </row>
     <row r="27" spans="1:19">
@@ -2651,10 +2651,10 @@
         <v>46</v>
       </c>
       <c r="R27">
-        <v>83.40009999999999</v>
-      </c>
-      <c r="S27" s="2">
-        <v>19.3853</v>
+        <v>83.7564</v>
+      </c>
+      <c r="S27">
+        <v>20.5298</v>
       </c>
     </row>
     <row r="28" spans="1:19">
@@ -2710,10 +2710,10 @@
         <v>46</v>
       </c>
       <c r="R28">
-        <v>81.3158</v>
+        <v>81.6797</v>
       </c>
       <c r="S28" s="2">
-        <v>18.6853</v>
+        <v>19.8693</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -2769,10 +2769,10 @@
         <v>59</v>
       </c>
       <c r="R29">
-        <v>82.1347</v>
-      </c>
-      <c r="S29" s="2">
-        <v>19.9833</v>
+        <v>82.4455</v>
+      </c>
+      <c r="S29">
+        <v>20.3347</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -2828,10 +2828,10 @@
         <v>59</v>
       </c>
       <c r="R30">
-        <v>85.27070000000001</v>
+        <v>85.3845</v>
       </c>
       <c r="S30">
-        <v>21.6475</v>
+        <v>22.1379</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -2887,10 +2887,10 @@
         <v>59</v>
       </c>
       <c r="R31">
-        <v>83.15000000000001</v>
+        <v>83.3998</v>
       </c>
       <c r="S31">
-        <v>20.7965</v>
+        <v>21.3738</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -2946,10 +2946,10 @@
         <v>59</v>
       </c>
       <c r="R32">
-        <v>81.8338</v>
+        <v>82.14749999999999</v>
       </c>
       <c r="S32" s="2">
-        <v>19.0098</v>
+        <v>19.9113</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -3005,10 +3005,10 @@
         <v>59</v>
       </c>
       <c r="R33">
-        <v>84.767</v>
+        <v>84.97410000000001</v>
       </c>
       <c r="S33">
-        <v>21.0953</v>
+        <v>22.0389</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -3064,10 +3064,10 @@
         <v>59</v>
       </c>
       <c r="R34">
-        <v>83.0247</v>
+        <v>83.2654</v>
       </c>
       <c r="S34">
-        <v>20.4117</v>
+        <v>21.5024</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -3123,10 +3123,10 @@
         <v>46</v>
       </c>
       <c r="R35">
-        <v>82.1491</v>
+        <v>82.4914</v>
       </c>
       <c r="S35">
-        <v>20.2392</v>
+        <v>20.5798</v>
       </c>
     </row>
     <row r="36" spans="1:19">
@@ -3182,10 +3182,10 @@
         <v>46</v>
       </c>
       <c r="R36">
-        <v>85.2976</v>
+        <v>85.4439</v>
       </c>
       <c r="S36">
-        <v>21.9195</v>
+        <v>22.3826</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -3241,10 +3241,10 @@
         <v>46</v>
       </c>
       <c r="R37">
-        <v>83.18129999999999</v>
+        <v>83.4699</v>
       </c>
       <c r="S37">
-        <v>21.0423</v>
+        <v>21.5737</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -3300,10 +3300,10 @@
         <v>46</v>
       </c>
       <c r="R38">
-        <v>81.9894</v>
-      </c>
-      <c r="S38" s="2">
-        <v>19.3687</v>
+        <v>82.3241</v>
+      </c>
+      <c r="S38">
+        <v>20.1788</v>
       </c>
     </row>
     <row r="39" spans="1:19">
@@ -3359,10 +3359,10 @@
         <v>46</v>
       </c>
       <c r="R39">
-        <v>84.91719999999999</v>
+        <v>85.1309</v>
       </c>
       <c r="S39">
-        <v>21.4452</v>
+        <v>22.2869</v>
       </c>
     </row>
     <row r="40" spans="1:19">
@@ -3418,10 +3418,10 @@
         <v>46</v>
       </c>
       <c r="R40">
-        <v>83.1506</v>
+        <v>83.4196</v>
       </c>
       <c r="S40">
-        <v>20.7332</v>
+        <v>21.6897</v>
       </c>
     </row>
     <row r="41" spans="1:19">
@@ -3477,10 +3477,10 @@
         <v>59</v>
       </c>
       <c r="R41">
-        <v>86.7604</v>
+        <v>86.45059999999999</v>
       </c>
       <c r="S41">
-        <v>23.5668</v>
+        <v>23.9558</v>
       </c>
     </row>
     <row r="42" spans="1:19">
@@ -3536,10 +3536,10 @@
         <v>59</v>
       </c>
       <c r="R42">
-        <v>88.658</v>
+        <v>88.4294</v>
       </c>
       <c r="S42">
-        <v>24.3085</v>
+        <v>24.6454</v>
       </c>
     </row>
     <row r="43" spans="1:19">
@@ -3595,10 +3595,10 @@
         <v>59</v>
       </c>
       <c r="R43">
-        <v>87.6268</v>
+        <v>87.3891</v>
       </c>
       <c r="S43">
-        <v>24.96</v>
+        <v>25.3544</v>
       </c>
     </row>
     <row r="44" spans="1:19">
@@ -3654,10 +3654,10 @@
         <v>59</v>
       </c>
       <c r="R44">
-        <v>80.8571</v>
+        <v>81.24379999999999</v>
       </c>
       <c r="S44" s="2">
-        <v>17.2051</v>
+        <v>18.888</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -3713,10 +3713,10 @@
         <v>59</v>
       </c>
       <c r="R45">
-        <v>83.8433</v>
-      </c>
-      <c r="S45" s="2">
-        <v>19.2653</v>
+        <v>84.2012</v>
+      </c>
+      <c r="S45">
+        <v>20.9677</v>
       </c>
     </row>
     <row r="46" spans="1:19">
@@ -3772,10 +3772,10 @@
         <v>59</v>
       </c>
       <c r="R46">
-        <v>81.9924</v>
-      </c>
-      <c r="S46" s="2">
-        <v>18.597</v>
+        <v>82.1893</v>
+      </c>
+      <c r="S46">
+        <v>20.1329</v>
       </c>
     </row>
     <row r="47" spans="1:19">
@@ -3831,10 +3831,10 @@
         <v>46</v>
       </c>
       <c r="R47">
-        <v>86.8034</v>
+        <v>86.5457</v>
       </c>
       <c r="S47">
-        <v>23.9032</v>
+        <v>24.3406</v>
       </c>
     </row>
     <row r="48" spans="1:19">
@@ -3890,10 +3890,10 @@
         <v>46</v>
       </c>
       <c r="R48">
-        <v>88.7109</v>
+        <v>88.5241</v>
       </c>
       <c r="S48">
-        <v>24.6881</v>
+        <v>25.0661</v>
       </c>
     </row>
     <row r="49" spans="1:19">
@@ -3949,10 +3949,10 @@
         <v>46</v>
       </c>
       <c r="R49">
-        <v>87.6086</v>
+        <v>87.4255</v>
       </c>
       <c r="S49">
-        <v>25.2524</v>
+        <v>25.6811</v>
       </c>
     </row>
     <row r="50" spans="1:19">
@@ -4008,10 +4008,10 @@
         <v>46</v>
       </c>
       <c r="R50">
-        <v>81.25839999999999</v>
+        <v>81.5258</v>
       </c>
       <c r="S50" s="2">
-        <v>17.9182</v>
+        <v>19.2849</v>
       </c>
     </row>
     <row r="51" spans="1:19">
@@ -4067,10 +4067,10 @@
         <v>46</v>
       </c>
       <c r="R51">
-        <v>84.2007</v>
-      </c>
-      <c r="S51" s="2">
-        <v>19.9924</v>
+        <v>84.45180000000001</v>
+      </c>
+      <c r="S51">
+        <v>21.3573</v>
       </c>
     </row>
     <row r="52" spans="1:19">
@@ -4126,10 +4126,10 @@
         <v>46</v>
       </c>
       <c r="R52">
-        <v>82.343</v>
-      </c>
-      <c r="S52" s="2">
-        <v>19.2567</v>
+        <v>82.4563</v>
+      </c>
+      <c r="S52">
+        <v>20.4662</v>
       </c>
     </row>
     <row r="53" spans="1:19">
@@ -4185,10 +4185,10 @@
         <v>34</v>
       </c>
       <c r="R53">
-        <v>84.4345</v>
+        <v>85.2821</v>
       </c>
       <c r="S53">
-        <v>24.7364</v>
+        <v>25.1763</v>
       </c>
     </row>
     <row r="54" spans="1:19">
@@ -4244,10 +4244,10 @@
         <v>46</v>
       </c>
       <c r="R54">
-        <v>87.56610000000001</v>
+        <v>87.6313</v>
       </c>
       <c r="S54">
-        <v>27.6823</v>
+        <v>28.2857</v>
       </c>
     </row>
     <row r="55" spans="1:19">
@@ -4303,10 +4303,10 @@
         <v>46</v>
       </c>
       <c r="R55">
-        <v>84.4076</v>
+        <v>84.761</v>
       </c>
       <c r="S55">
-        <v>24.609</v>
+        <v>24.6612</v>
       </c>
     </row>
     <row r="56" spans="1:19">
@@ -4362,10 +4362,10 @@
         <v>59</v>
       </c>
       <c r="R56">
-        <v>85.15689999999999</v>
+        <v>85.4183</v>
       </c>
       <c r="S56">
-        <v>23.7754</v>
+        <v>24.4516</v>
       </c>
     </row>
     <row r="57" spans="1:19">
@@ -4421,10 +4421,10 @@
         <v>59</v>
       </c>
       <c r="R57">
-        <v>85.73560000000001</v>
+        <v>84.423</v>
       </c>
       <c r="S57">
-        <v>22.6017</v>
+        <v>24.4552</v>
       </c>
     </row>
     <row r="58" spans="1:19">
@@ -4480,10 +4480,10 @@
         <v>59</v>
       </c>
       <c r="R58">
-        <v>85.4258</v>
+        <v>85.76479999999999</v>
       </c>
       <c r="S58">
-        <v>24.4087</v>
+        <v>25.0277</v>
       </c>
     </row>
     <row r="59" spans="1:19">
@@ -4539,10 +4539,10 @@
         <v>59</v>
       </c>
       <c r="R59">
-        <v>84.6153</v>
+        <v>84.7799</v>
       </c>
       <c r="S59">
-        <v>22.7836</v>
+        <v>25.0645</v>
       </c>
     </row>
     <row r="60" spans="1:19">
@@ -4598,10 +4598,10 @@
         <v>59</v>
       </c>
       <c r="R60">
-        <v>88.3082</v>
+        <v>88.4156</v>
       </c>
       <c r="S60">
-        <v>26.7073</v>
+        <v>27.1749</v>
       </c>
     </row>
     <row r="61" spans="1:19">
@@ -4657,10 +4657,10 @@
         <v>59</v>
       </c>
       <c r="R61">
-        <v>85.7791</v>
+        <v>86.355</v>
       </c>
       <c r="S61">
-        <v>26.2344</v>
+        <v>26.9139</v>
       </c>
     </row>
     <row r="62" spans="1:19">
@@ -4716,10 +4716,10 @@
         <v>46</v>
       </c>
       <c r="R62">
-        <v>89.2826</v>
+        <v>89.23990000000001</v>
       </c>
       <c r="S62">
-        <v>28.5165</v>
+        <v>29.0746</v>
       </c>
     </row>
     <row r="63" spans="1:19">
@@ -4775,10 +4775,10 @@
         <v>46</v>
       </c>
       <c r="R63">
-        <v>88.23690000000001</v>
+        <v>88.1803</v>
       </c>
       <c r="S63">
-        <v>29.0566</v>
+        <v>29.7024</v>
       </c>
     </row>
     <row r="64" spans="1:19">
@@ -4834,10 +4834,10 @@
         <v>46</v>
       </c>
       <c r="R64">
-        <v>89.6581</v>
+        <v>89.58880000000001</v>
       </c>
       <c r="S64">
-        <v>29.9738</v>
+        <v>30.5419</v>
       </c>
     </row>
     <row r="65" spans="1:19">
@@ -4893,10 +4893,10 @@
         <v>46</v>
       </c>
       <c r="R65">
-        <v>86.5791</v>
+        <v>86.7906</v>
       </c>
       <c r="S65">
-        <v>26.7703</v>
+        <v>26.9439</v>
       </c>
     </row>
     <row r="66" spans="1:19">
@@ -4952,10 +4952,10 @@
         <v>46</v>
       </c>
       <c r="R66">
-        <v>85.3013</v>
+        <v>85.44710000000001</v>
       </c>
       <c r="S66">
-        <v>25.6053</v>
+        <v>26.164</v>
       </c>
     </row>
     <row r="67" spans="1:19">
@@ -5011,10 +5011,10 @@
         <v>46</v>
       </c>
       <c r="R67">
-        <v>87.1092</v>
+        <v>87.2152</v>
       </c>
       <c r="S67">
-        <v>27.9558</v>
+        <v>28.5254</v>
       </c>
     </row>
     <row r="68" spans="1:19">
@@ -5070,10 +5070,10 @@
         <v>59</v>
       </c>
       <c r="R68">
-        <v>83.24079999999999</v>
+        <v>81.45999999999999</v>
       </c>
       <c r="S68">
-        <v>22.3334</v>
+        <v>21.964</v>
       </c>
     </row>
     <row r="69" spans="1:19">
@@ -5129,10 +5129,10 @@
         <v>59</v>
       </c>
       <c r="R69">
-        <v>86.7694</v>
+        <v>85.0271</v>
       </c>
       <c r="S69">
-        <v>22.8659</v>
+        <v>23.2369</v>
       </c>
     </row>
     <row r="70" spans="1:19">
@@ -5188,10 +5188,10 @@
         <v>59</v>
       </c>
       <c r="R70">
-        <v>81.6605</v>
+        <v>82.3896</v>
       </c>
       <c r="S70">
-        <v>22.6333</v>
+        <v>22.7763</v>
       </c>
     </row>
     <row r="71" spans="1:19">
@@ -5247,10 +5247,10 @@
         <v>59</v>
       </c>
       <c r="R71">
-        <v>95.99590000000001</v>
+        <v>80.02030000000001</v>
       </c>
       <c r="S71">
-        <v>24.0347</v>
+        <v>21.9366</v>
       </c>
     </row>
     <row r="72" spans="1:19">
@@ -5306,10 +5306,10 @@
         <v>59</v>
       </c>
       <c r="R72">
-        <v>98.0291</v>
+        <v>84.1405</v>
       </c>
       <c r="S72">
-        <v>23.4529</v>
+        <v>22.73</v>
       </c>
     </row>
     <row r="73" spans="1:19">
@@ -5365,10 +5365,10 @@
         <v>59</v>
       </c>
       <c r="R73">
-        <v>81.96769999999999</v>
+        <v>80.84180000000001</v>
       </c>
       <c r="S73">
-        <v>22.3031</v>
+        <v>23.1018</v>
       </c>
     </row>
     <row r="74" spans="1:19">
@@ -5424,10 +5424,10 @@
         <v>46</v>
       </c>
       <c r="R74">
-        <v>82.6465</v>
+        <v>81.45310000000001</v>
       </c>
       <c r="S74">
-        <v>22.4167</v>
+        <v>22.0907</v>
       </c>
     </row>
     <row r="75" spans="1:19">
@@ -5483,10 +5483,10 @@
         <v>46</v>
       </c>
       <c r="R75">
-        <v>86.28700000000001</v>
+        <v>85.0158</v>
       </c>
       <c r="S75">
-        <v>22.9909</v>
+        <v>23.3957</v>
       </c>
     </row>
     <row r="76" spans="1:19">
@@ -5542,10 +5542,10 @@
         <v>46</v>
       </c>
       <c r="R76">
-        <v>81.6268</v>
+        <v>82.4808</v>
       </c>
       <c r="S76">
-        <v>22.7641</v>
+        <v>22.8835</v>
       </c>
     </row>
     <row r="77" spans="1:19">
@@ -5601,10 +5601,10 @@
         <v>46</v>
       </c>
       <c r="R77">
-        <v>93.6708</v>
+        <v>79.8107</v>
       </c>
       <c r="S77">
-        <v>23.9675</v>
+        <v>22.135</v>
       </c>
     </row>
     <row r="78" spans="1:19">
@@ -5660,10 +5660,10 @@
         <v>46</v>
       </c>
       <c r="R78">
-        <v>95.9346</v>
+        <v>83.97239999999999</v>
       </c>
       <c r="S78">
-        <v>23.4206</v>
+        <v>22.984</v>
       </c>
     </row>
     <row r="79" spans="1:19">
@@ -5719,10 +5719,10 @@
         <v>46</v>
       </c>
       <c r="R79">
-        <v>81.29389999999999</v>
+        <v>81.0566</v>
       </c>
       <c r="S79">
-        <v>22.4047</v>
+        <v>23.3831</v>
       </c>
     </row>
     <row r="80" spans="1:19">
@@ -5778,10 +5778,10 @@
         <v>59</v>
       </c>
       <c r="R80">
-        <v>83.27509999999999</v>
+        <v>81.79600000000001</v>
       </c>
       <c r="S80">
-        <v>23.0896</v>
+        <v>22.7427</v>
       </c>
     </row>
     <row r="81" spans="1:19">
@@ -5837,10 +5837,10 @@
         <v>59</v>
       </c>
       <c r="R81">
-        <v>86.8801</v>
+        <v>85.32510000000001</v>
       </c>
       <c r="S81">
-        <v>23.535</v>
+        <v>23.9589</v>
       </c>
     </row>
     <row r="82" spans="1:19">
@@ -5896,10 +5896,10 @@
         <v>59</v>
       </c>
       <c r="R82">
-        <v>82.0424</v>
+        <v>82.88549999999999</v>
       </c>
       <c r="S82">
-        <v>23.24</v>
+        <v>23.3355</v>
       </c>
     </row>
     <row r="83" spans="1:19">
@@ -5955,10 +5955,10 @@
         <v>59</v>
       </c>
       <c r="R83">
-        <v>93.1563</v>
+        <v>79.79949999999999</v>
       </c>
       <c r="S83">
-        <v>23.9539</v>
+        <v>22.1292</v>
       </c>
     </row>
     <row r="84" spans="1:19">
@@ -6014,10 +6014,10 @@
         <v>59</v>
       </c>
       <c r="R84">
-        <v>95.5022</v>
+        <v>83.9315</v>
       </c>
       <c r="S84">
-        <v>23.4652</v>
+        <v>23.0585</v>
       </c>
     </row>
     <row r="85" spans="1:19">
@@ -6073,10 +6073,10 @@
         <v>59</v>
       </c>
       <c r="R85">
-        <v>80.6241</v>
+        <v>81.4087</v>
       </c>
       <c r="S85">
-        <v>22.2637</v>
+        <v>23.5879</v>
       </c>
     </row>
     <row r="86" spans="1:19">
@@ -6132,10 +6132,10 @@
         <v>46</v>
       </c>
       <c r="R86">
-        <v>82.6339</v>
+        <v>81.8015</v>
       </c>
       <c r="S86">
-        <v>23.1349</v>
+        <v>22.8111</v>
       </c>
     </row>
     <row r="87" spans="1:19">
@@ -6191,10 +6191,10 @@
         <v>46</v>
       </c>
       <c r="R87">
-        <v>86.3433</v>
+        <v>85.3022</v>
       </c>
       <c r="S87">
-        <v>23.6407</v>
+        <v>24.0771</v>
       </c>
     </row>
     <row r="88" spans="1:19">
@@ -6250,10 +6250,10 @@
         <v>46</v>
       </c>
       <c r="R88">
-        <v>82.0432</v>
+        <v>82.9845</v>
       </c>
       <c r="S88">
-        <v>23.353</v>
+        <v>23.4125</v>
       </c>
     </row>
     <row r="89" spans="1:19">
@@ -6309,10 +6309,10 @@
         <v>46</v>
       </c>
       <c r="R89">
-        <v>90.5643</v>
+        <v>79.78530000000001</v>
       </c>
       <c r="S89">
-        <v>23.7905</v>
+        <v>22.3657</v>
       </c>
     </row>
     <row r="90" spans="1:19">
@@ -6368,10 +6368,10 @@
         <v>46</v>
       </c>
       <c r="R90">
-        <v>93.20059999999999</v>
+        <v>83.905</v>
       </c>
       <c r="S90">
-        <v>23.3729</v>
+        <v>23.3561</v>
       </c>
     </row>
     <row r="91" spans="1:19">
@@ -6427,10 +6427,10 @@
         <v>46</v>
       </c>
       <c r="R91">
-        <v>80.2573</v>
+        <v>81.6489</v>
       </c>
       <c r="S91">
-        <v>22.4313</v>
+        <v>23.8707</v>
       </c>
     </row>
     <row r="92" spans="1:19">
@@ -6486,10 +6486,10 @@
         <v>59</v>
       </c>
       <c r="R92">
-        <v>85.3493</v>
+        <v>85.73860000000001</v>
       </c>
       <c r="S92">
-        <v>24.3291</v>
+        <v>24.6873</v>
       </c>
     </row>
     <row r="93" spans="1:19">
@@ -6545,10 +6545,10 @@
         <v>59</v>
       </c>
       <c r="R93">
-        <v>87.8138</v>
+        <v>87.9503</v>
       </c>
       <c r="S93">
-        <v>25.2858</v>
+        <v>25.7773</v>
       </c>
     </row>
     <row r="94" spans="1:19">
@@ -6604,10 +6604,10 @@
         <v>59</v>
       </c>
       <c r="R94">
-        <v>86.2324</v>
+        <v>86.4902</v>
       </c>
       <c r="S94">
-        <v>25.5959</v>
+        <v>25.9729</v>
       </c>
     </row>
     <row r="95" spans="1:19">
@@ -6663,10 +6663,10 @@
         <v>59</v>
       </c>
       <c r="R95">
-        <v>81.28660000000001</v>
+        <v>82.9666</v>
       </c>
       <c r="S95">
-        <v>22.7174</v>
+        <v>23.1845</v>
       </c>
     </row>
     <row r="96" spans="1:19">
@@ -6722,10 +6722,10 @@
         <v>59</v>
       </c>
       <c r="R96">
-        <v>84.6934</v>
+        <v>85.6563</v>
       </c>
       <c r="S96">
-        <v>24.232</v>
+        <v>25.2275</v>
       </c>
     </row>
     <row r="97" spans="1:19">
@@ -6781,10 +6781,10 @@
         <v>59</v>
       </c>
       <c r="R97">
-        <v>83.0913</v>
+        <v>84.0966</v>
       </c>
       <c r="S97">
-        <v>24.3812</v>
+        <v>24.699</v>
       </c>
     </row>
     <row r="98" spans="1:19">
@@ -6840,10 +6840,10 @@
         <v>46</v>
       </c>
       <c r="R98">
-        <v>85.3663</v>
+        <v>85.78919999999999</v>
       </c>
       <c r="S98">
-        <v>24.5154</v>
+        <v>24.9147</v>
       </c>
     </row>
     <row r="99" spans="1:19">
@@ -6899,10 +6899,10 @@
         <v>46</v>
       </c>
       <c r="R99">
-        <v>87.8309</v>
+        <v>88.0085</v>
       </c>
       <c r="S99">
-        <v>25.465</v>
+        <v>25.9857</v>
       </c>
     </row>
     <row r="100" spans="1:19">
@@ -6958,10 +6958,10 @@
         <v>46</v>
       </c>
       <c r="R100">
-        <v>86.26779999999999</v>
+        <v>86.5407</v>
       </c>
       <c r="S100">
-        <v>25.7443</v>
+        <v>26.1846</v>
       </c>
     </row>
     <row r="101" spans="1:19">
@@ -7017,10 +7017,10 @@
         <v>46</v>
       </c>
       <c r="R101">
-        <v>81.4731</v>
+        <v>83.11799999999999</v>
       </c>
       <c r="S101">
-        <v>22.9431</v>
+        <v>23.3104</v>
       </c>
     </row>
     <row r="102" spans="1:19">
@@ -7076,10 +7076,10 @@
         <v>46</v>
       </c>
       <c r="R102">
-        <v>84.84099999999999</v>
+        <v>85.7812</v>
       </c>
       <c r="S102">
-        <v>24.4752</v>
+        <v>25.344</v>
       </c>
     </row>
     <row r="103" spans="1:19">
@@ -7135,10 +7135,10 @@
         <v>46</v>
       </c>
       <c r="R103">
-        <v>83.2424</v>
+        <v>84.2132</v>
       </c>
       <c r="S103">
-        <v>24.4869</v>
+        <v>24.7647</v>
       </c>
     </row>
     <row r="104" spans="1:19">
@@ -7194,10 +7194,10 @@
         <v>34</v>
       </c>
       <c r="R104">
-        <v>85.1103</v>
+        <v>85.3817</v>
       </c>
       <c r="S104">
-        <v>24.2417</v>
+        <v>24.8577</v>
       </c>
     </row>
     <row r="105" spans="1:19">
@@ -7253,10 +7253,10 @@
         <v>46</v>
       </c>
       <c r="R105">
-        <v>87.688</v>
+        <v>87.64319999999999</v>
       </c>
       <c r="S105">
-        <v>27.6481</v>
+        <v>28.2935</v>
       </c>
     </row>
     <row r="106" spans="1:19">
@@ -7312,10 +7312,10 @@
         <v>46</v>
       </c>
       <c r="R106">
-        <v>84.6498</v>
+        <v>84.7773</v>
       </c>
       <c r="S106">
-        <v>23.6174</v>
+        <v>24.5263</v>
       </c>
     </row>
     <row r="107" spans="1:19">
@@ -7371,10 +7371,10 @@
         <v>59</v>
       </c>
       <c r="R107">
-        <v>85.2966</v>
+        <v>85.53740000000001</v>
       </c>
       <c r="S107">
-        <v>23.682</v>
+        <v>24.2024</v>
       </c>
     </row>
     <row r="108" spans="1:19">
@@ -7430,10 +7430,10 @@
         <v>59</v>
       </c>
       <c r="R108">
-        <v>84.4807</v>
+        <v>85.2534</v>
       </c>
       <c r="S108">
-        <v>24.0606</v>
+        <v>25.3058</v>
       </c>
     </row>
     <row r="109" spans="1:19">
@@ -7489,10 +7489,10 @@
         <v>59</v>
       </c>
       <c r="R109">
-        <v>85.6392</v>
+        <v>85.87050000000001</v>
       </c>
       <c r="S109">
-        <v>24.3904</v>
+        <v>24.7804</v>
       </c>
     </row>
     <row r="110" spans="1:19">
@@ -7548,10 +7548,10 @@
         <v>59</v>
       </c>
       <c r="R110">
-        <v>84.7423</v>
+        <v>85.5149</v>
       </c>
       <c r="S110">
-        <v>24.6004</v>
+        <v>25.8411</v>
       </c>
     </row>
     <row r="111" spans="1:19">
@@ -7607,10 +7607,10 @@
         <v>59</v>
       </c>
       <c r="R111">
-        <v>88.4838</v>
+        <v>88.46939999999999</v>
       </c>
       <c r="S111">
-        <v>26.6247</v>
+        <v>27.1242</v>
       </c>
     </row>
     <row r="112" spans="1:19">
@@ -7666,10 +7666,10 @@
         <v>59</v>
       </c>
       <c r="R112">
-        <v>86.1972</v>
+        <v>86.39830000000001</v>
       </c>
       <c r="S112">
-        <v>25.2418</v>
+        <v>26.4017</v>
       </c>
     </row>
     <row r="113" spans="1:19">
@@ -7725,10 +7725,10 @@
         <v>46</v>
       </c>
       <c r="R113">
-        <v>89.29519999999999</v>
+        <v>89.2393</v>
       </c>
       <c r="S113">
-        <v>28.502</v>
+        <v>29.0768</v>
       </c>
     </row>
     <row r="114" spans="1:19">
@@ -7784,10 +7784,10 @@
         <v>46</v>
       </c>
       <c r="R114">
-        <v>88.3098</v>
+        <v>88.1865</v>
       </c>
       <c r="S114">
-        <v>29.0295</v>
+        <v>29.7096</v>
       </c>
     </row>
     <row r="115" spans="1:19">
@@ -7843,10 +7843,10 @@
         <v>46</v>
       </c>
       <c r="R115">
-        <v>89.6741</v>
+        <v>89.58799999999999</v>
       </c>
       <c r="S115">
-        <v>29.9489</v>
+        <v>30.5427</v>
       </c>
     </row>
     <row r="116" spans="1:19">
@@ -7902,10 +7902,10 @@
         <v>46</v>
       </c>
       <c r="R116">
-        <v>86.6848</v>
+        <v>86.79649999999999</v>
       </c>
       <c r="S116">
-        <v>25.9</v>
+        <v>26.8177</v>
       </c>
     </row>
     <row r="117" spans="1:19">
@@ -7961,10 +7961,10 @@
         <v>46</v>
       </c>
       <c r="R117">
-        <v>85.3716</v>
+        <v>85.4495</v>
       </c>
       <c r="S117">
-        <v>24.7838</v>
+        <v>26.0317</v>
       </c>
     </row>
     <row r="118" spans="1:19">
@@ -8020,10 +8020,10 @@
         <v>46</v>
       </c>
       <c r="R118">
-        <v>87.1311</v>
+        <v>87.2144</v>
       </c>
       <c r="S118">
-        <v>27.1904</v>
+        <v>28.3965</v>
       </c>
     </row>
     <row r="119" spans="1:19">
@@ -8079,10 +8079,10 @@
         <v>59</v>
       </c>
       <c r="R119">
-        <v>81.4093</v>
+        <v>81.6164</v>
       </c>
       <c r="S119">
-        <v>21.4048</v>
+        <v>21.4872</v>
       </c>
     </row>
     <row r="120" spans="1:19">
@@ -8138,10 +8138,10 @@
         <v>59</v>
       </c>
       <c r="R120">
-        <v>85.0043</v>
+        <v>84.99550000000001</v>
       </c>
       <c r="S120">
-        <v>22.6699</v>
+        <v>23.0392</v>
       </c>
     </row>
     <row r="121" spans="1:19">
@@ -8197,10 +8197,10 @@
         <v>59</v>
       </c>
       <c r="R121">
-        <v>82.2003</v>
+        <v>82.66500000000001</v>
       </c>
       <c r="S121">
-        <v>22.0344</v>
+        <v>22.3644</v>
       </c>
     </row>
     <row r="122" spans="1:19">
@@ -8256,10 +8256,10 @@
         <v>59</v>
       </c>
       <c r="R122">
-        <v>80.1395</v>
+        <v>80.5055</v>
       </c>
       <c r="S122">
-        <v>21.6392</v>
+        <v>22.0432</v>
       </c>
     </row>
     <row r="123" spans="1:19">
@@ -8315,10 +8315,10 @@
         <v>59</v>
       </c>
       <c r="R123">
-        <v>84.1902</v>
+        <v>84.2127</v>
       </c>
       <c r="S123">
-        <v>22.5678</v>
+        <v>23.4922</v>
       </c>
     </row>
     <row r="124" spans="1:19">
@@ -8374,10 +8374,10 @@
         <v>59</v>
       </c>
       <c r="R124">
-        <v>80.9744</v>
+        <v>82.2906</v>
       </c>
       <c r="S124">
-        <v>22.6121</v>
+        <v>23.4822</v>
       </c>
     </row>
     <row r="125" spans="1:19">
@@ -8433,10 +8433,10 @@
         <v>46</v>
       </c>
       <c r="R125">
-        <v>81.3627</v>
+        <v>81.66719999999999</v>
       </c>
       <c r="S125">
-        <v>21.5049</v>
+        <v>21.6138</v>
       </c>
     </row>
     <row r="126" spans="1:19">
@@ -8492,10 +8492,10 @@
         <v>46</v>
       </c>
       <c r="R126">
-        <v>84.9811</v>
+        <v>85.04300000000001</v>
       </c>
       <c r="S126">
-        <v>22.7849</v>
+        <v>23.1728</v>
       </c>
     </row>
     <row r="127" spans="1:19">
@@ -8551,10 +8551,10 @@
         <v>46</v>
       </c>
       <c r="R127">
-        <v>82.2444</v>
+        <v>82.7439</v>
       </c>
       <c r="S127">
-        <v>22.1096</v>
+        <v>22.4768</v>
       </c>
     </row>
     <row r="128" spans="1:19">
@@ -8610,10 +8610,10 @@
         <v>46</v>
       </c>
       <c r="R128">
-        <v>79.9914</v>
+        <v>80.66840000000001</v>
       </c>
       <c r="S128">
-        <v>21.784</v>
+        <v>22.2415</v>
       </c>
     </row>
     <row r="129" spans="1:19">
@@ -8669,10 +8669,10 @@
         <v>46</v>
       </c>
       <c r="R129">
-        <v>84.08929999999999</v>
+        <v>84.3338</v>
       </c>
       <c r="S129">
-        <v>22.7381</v>
+        <v>23.7192</v>
       </c>
     </row>
     <row r="130" spans="1:19">
@@ -8728,10 +8728,10 @@
         <v>46</v>
       </c>
       <c r="R130">
-        <v>81.0716</v>
+        <v>82.43899999999999</v>
       </c>
       <c r="S130">
-        <v>22.766</v>
+        <v>23.6069</v>
       </c>
     </row>
     <row r="131" spans="1:19">
@@ -8787,10 +8787,10 @@
         <v>59</v>
       </c>
       <c r="R131">
-        <v>81.77460000000001</v>
+        <v>81.9901</v>
       </c>
       <c r="S131">
-        <v>22.5092</v>
+        <v>22.3696</v>
       </c>
     </row>
     <row r="132" spans="1:19">
@@ -8846,10 +8846,10 @@
         <v>59</v>
       </c>
       <c r="R132">
-        <v>85.38720000000001</v>
+        <v>85.333</v>
       </c>
       <c r="S132">
-        <v>23.6376</v>
+        <v>23.8434</v>
       </c>
     </row>
     <row r="133" spans="1:19">
@@ -8905,10 +8905,10 @@
         <v>59</v>
       </c>
       <c r="R133">
-        <v>82.657</v>
+        <v>83.1267</v>
       </c>
       <c r="S133">
-        <v>22.7656</v>
+        <v>22.9472</v>
       </c>
     </row>
     <row r="134" spans="1:19">
@@ -8964,10 +8964,10 @@
         <v>59</v>
       </c>
       <c r="R134">
-        <v>80.2298</v>
+        <v>80.74639999999999</v>
       </c>
       <c r="S134">
-        <v>22.138</v>
+        <v>22.4697</v>
       </c>
     </row>
     <row r="135" spans="1:19">
@@ -9023,10 +9023,10 @@
         <v>59</v>
       </c>
       <c r="R135">
-        <v>84.3044</v>
+        <v>84.38549999999999</v>
       </c>
       <c r="S135">
-        <v>23.0403</v>
+        <v>23.9545</v>
       </c>
     </row>
     <row r="136" spans="1:19">
@@ -9082,10 +9082,10 @@
         <v>59</v>
       </c>
       <c r="R136">
-        <v>81.36279999999999</v>
+        <v>82.6863</v>
       </c>
       <c r="S136">
-        <v>23.0879</v>
+        <v>23.9531</v>
       </c>
     </row>
     <row r="137" spans="1:19">
@@ -9141,10 +9141,10 @@
         <v>46</v>
       </c>
       <c r="R137">
-        <v>81.7017</v>
+        <v>82.044</v>
       </c>
       <c r="S137">
-        <v>22.5455</v>
+        <v>22.4268</v>
       </c>
     </row>
     <row r="138" spans="1:19">
@@ -9200,10 +9200,10 @@
         <v>46</v>
       </c>
       <c r="R138">
-        <v>85.3202</v>
+        <v>85.3621</v>
       </c>
       <c r="S138">
-        <v>23.7077</v>
+        <v>23.9239</v>
       </c>
     </row>
     <row r="139" spans="1:19">
@@ -9259,10 +9259,10 @@
         <v>46</v>
       </c>
       <c r="R139">
-        <v>82.7109</v>
+        <v>83.21120000000001</v>
       </c>
       <c r="S139">
-        <v>22.804</v>
+        <v>23.0323</v>
       </c>
     </row>
     <row r="140" spans="1:19">
@@ -9318,10 +9318,10 @@
         <v>46</v>
       </c>
       <c r="R140">
-        <v>80.06789999999999</v>
+        <v>80.96120000000001</v>
       </c>
       <c r="S140">
-        <v>22.2476</v>
+        <v>22.6723</v>
       </c>
     </row>
     <row r="141" spans="1:19">
@@ -9377,10 +9377,10 @@
         <v>46</v>
       </c>
       <c r="R141">
-        <v>84.173</v>
+        <v>84.5347</v>
       </c>
       <c r="S141">
-        <v>23.2017</v>
+        <v>24.1949</v>
       </c>
     </row>
     <row r="142" spans="1:19">
@@ -9436,10 +9436,10 @@
         <v>46</v>
       </c>
       <c r="R142">
-        <v>81.4962</v>
+        <v>82.8417</v>
       </c>
       <c r="S142">
-        <v>23.2482</v>
+        <v>24.0693</v>
       </c>
     </row>
     <row r="143" spans="1:19">
@@ -9495,10 +9495,10 @@
         <v>59</v>
       </c>
       <c r="R143">
-        <v>85.8021</v>
+        <v>85.8976</v>
       </c>
       <c r="S143">
-        <v>24.2426</v>
+        <v>24.6353</v>
       </c>
     </row>
     <row r="144" spans="1:19">
@@ -9554,10 +9554,10 @@
         <v>59</v>
       </c>
       <c r="R144">
-        <v>88.0008</v>
+        <v>88.02379999999999</v>
       </c>
       <c r="S144">
-        <v>25.275</v>
+        <v>25.7183</v>
       </c>
     </row>
     <row r="145" spans="1:19">
@@ -9613,10 +9613,10 @@
         <v>59</v>
       </c>
       <c r="R145">
-        <v>86.59139999999999</v>
+        <v>86.5954</v>
       </c>
       <c r="S145">
-        <v>25.4747</v>
+        <v>25.9319</v>
       </c>
     </row>
     <row r="146" spans="1:19">
@@ -9672,10 +9672,10 @@
         <v>59</v>
       </c>
       <c r="R146">
-        <v>82.8661</v>
+        <v>83.262</v>
       </c>
       <c r="S146">
-        <v>21.8615</v>
+        <v>22.5345</v>
       </c>
     </row>
     <row r="147" spans="1:19">
@@ -9731,10 +9731,10 @@
         <v>59</v>
       </c>
       <c r="R147">
-        <v>85.5252</v>
+        <v>85.79049999999999</v>
       </c>
       <c r="S147">
-        <v>23.9375</v>
+        <v>24.705</v>
       </c>
     </row>
     <row r="148" spans="1:19">
@@ -9790,10 +9790,10 @@
         <v>59</v>
       </c>
       <c r="R148">
-        <v>83.9402</v>
+        <v>84.211</v>
       </c>
       <c r="S148">
-        <v>22.9983</v>
+        <v>24.1193</v>
       </c>
     </row>
     <row r="149" spans="1:19">
@@ -9849,10 +9849,10 @@
         <v>46</v>
       </c>
       <c r="R149">
-        <v>85.8365</v>
+        <v>85.93600000000001</v>
       </c>
       <c r="S149">
-        <v>24.429</v>
+        <v>24.8825</v>
       </c>
     </row>
     <row r="150" spans="1:19">
@@ -9908,10 +9908,10 @@
         <v>46</v>
       </c>
       <c r="R150">
-        <v>88.04640000000001</v>
+        <v>88.0795</v>
       </c>
       <c r="S150">
-        <v>25.4573</v>
+        <v>25.9512</v>
       </c>
     </row>
     <row r="151" spans="1:19">
@@ -9967,10 +9967,10 @@
         <v>46</v>
       </c>
       <c r="R151">
-        <v>86.602</v>
+        <v>86.6362</v>
       </c>
       <c r="S151">
-        <v>25.6484</v>
+        <v>26.1571</v>
       </c>
     </row>
     <row r="152" spans="1:19">
@@ -10026,10 +10026,10 @@
         <v>46</v>
       </c>
       <c r="R152">
-        <v>82.9898</v>
+        <v>83.3866</v>
       </c>
       <c r="S152">
-        <v>21.9547</v>
+        <v>22.6995</v>
       </c>
     </row>
     <row r="153" spans="1:19">
@@ -10085,10 +10085,10 @@
         <v>46</v>
       </c>
       <c r="R153">
-        <v>85.6386</v>
+        <v>85.9045</v>
       </c>
       <c r="S153">
-        <v>24.0259</v>
+        <v>24.844</v>
       </c>
     </row>
     <row r="154" spans="1:19">
@@ -10144,10 +10144,10 @@
         <v>46</v>
       </c>
       <c r="R154">
-        <v>84.0442</v>
+        <v>84.3253</v>
       </c>
       <c r="S154">
-        <v>23.127</v>
+        <v>24.2283</v>
       </c>
     </row>
     <row r="155" spans="1:19" s="1" customFormat="1">
@@ -10214,10 +10214,10 @@
         <v>220</v>
       </c>
       <c r="R156" s="1">
-        <v>79.6953</v>
+        <v>79.78530000000001</v>
       </c>
       <c r="S156" s="2">
-        <v>17.0553</v>
+        <v>18.283</v>
       </c>
     </row>
     <row r="157" spans="1:19" s="1" customFormat="1">
@@ -10225,10 +10225,10 @@
         <v>221</v>
       </c>
       <c r="R157" s="1">
-        <v>98.0291</v>
+        <v>89.9966</v>
       </c>
       <c r="S157" s="1">
-        <v>29.9738</v>
+        <v>30.5427</v>
       </c>
     </row>
     <row r="158" spans="1:19" s="1" customFormat="1">
@@ -10268,10 +10268,10 @@
         <v>226</v>
       </c>
       <c r="R162" s="1">
-        <v>85.03236601307184</v>
+        <v>84.55713071895431</v>
       </c>
       <c r="S162" s="1">
-        <v>23.22065424836601</v>
+        <v>23.80626339869282</v>
       </c>
     </row>
     <row r="163" spans="17:19" s="1" customFormat="1">
@@ -10279,10 +10279,10 @@
         <v>227</v>
       </c>
       <c r="R163" s="1">
-        <v>3.380774179798558</v>
+        <v>2.439219027574437</v>
       </c>
       <c r="S163" s="1">
-        <v>2.649188885731984</v>
+        <v>2.564351015829509</v>
       </c>
     </row>
     <row r="164" spans="17:19" s="1" customFormat="1">
@@ -10290,10 +10290,10 @@
         <v>228</v>
       </c>
       <c r="R164" s="1">
-        <v>3.975867470603886</v>
+        <v>2.884699382340397</v>
       </c>
       <c r="S164" s="1">
-        <v>11.4087607411768</v>
+        <v>10.77174932026634</v>
       </c>
     </row>
     <row r="165" spans="17:19" s="1" customFormat="1"/>
